--- a/Scraper/LikeDislike.xlsx
+++ b/Scraper/LikeDislike.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -477,12 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>258</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2529,12 +2529,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4041,12 +4041,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4167,12 +4167,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4383,12 +4383,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4455,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4563,12 +4563,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4653,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4689,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4761,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4905,12 +4905,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -8055,12 +8055,12 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9459,12 +9459,12 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -9873,12 +9873,12 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9909,12 +9909,12 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -9981,12 +9981,12 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -10071,12 +10071,12 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -10107,12 +10107,12 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -10197,12 +10197,12 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10215,12 +10215,12 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10233,12 +10233,12 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10251,12 +10251,12 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Scraper/LikeDislike.xlsx
+++ b/Scraper/LikeDislike.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>269</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4455,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4563,12 +4563,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4689,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4707,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4761,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4905,12 +4905,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -4941,12 +4941,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Scraper/LikeDislike.xlsx
+++ b/Scraper/LikeDislike.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>286</t>
         </is>
       </c>
     </row>
@@ -1557,12 +1557,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1629,12 +1629,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4707,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4761,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4905,12 +4905,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">

--- a/Scraper/LikeDislike.xlsx
+++ b/Scraper/LikeDislike.xlsx
@@ -459,12 +459,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -477,12 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1503,12 +1503,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2619,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2691,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2727,12 +2727,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3141,12 +3141,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3177,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3303,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4257,12 +4257,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4329,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4617,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4761,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4833,12 +4833,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5445,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6453,12 +6453,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6471,12 +6471,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -6849,12 +6849,12 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6867,12 +6867,12 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Scraper/LikeDislike.xlsx
+++ b/Scraper/LikeDislike.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D619"/>
+  <dimension ref="A1:D583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +459,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -477,12 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>221</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1503,12 +1503,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1737,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>122</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2799,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2925,12 +2925,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3069,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3303,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3951,12 +3951,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4149,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4329,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4365,12 +4365,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5445,12 +5445,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -8073,12 +8073,12 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -9099,12 +9099,12 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -9693,12 +9693,12 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -9837,12 +9837,12 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -9909,12 +9909,12 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -9981,12 +9981,12 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -10107,12 +10107,12 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -10197,12 +10197,12 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -10251,12 +10251,12 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10921,654 +10921,6 @@
         </is>
       </c>
       <c r="D583" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>582</v>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>583</v>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>584</v>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>585</v>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>586</v>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>587</v>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>588</v>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>589</v>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>590</v>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>591</v>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>592</v>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>593</v>
-      </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>594</v>
-      </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>595</v>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>596</v>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>597</v>
-      </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>598</v>
-      </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>599</v>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>600</v>
-      </c>
-      <c r="C602" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>601</v>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>602</v>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>603</v>
-      </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>604</v>
-      </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>605</v>
-      </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>606</v>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>607</v>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>608</v>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>609</v>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>610</v>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>611</v>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>612</v>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>613</v>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>614</v>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>615</v>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>616</v>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>617</v>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
         <is>
           <t>0</t>
         </is>
